--- a/StructureDefinition-ext-R5-ValueSet.scope.xlsx
+++ b/StructureDefinition-ext-R5-ValueSet.scope.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ValueSet.scope` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `ValueSet.scope` is mapped to FHIR R4 structure `ValueSet`, but has no target element specified.</t>
+Element `ValueSet.scope` is will have a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ValueSet</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `ValueSet.scope.inclusionCriteria` is part of an existing definition because parent element `ValueSet.scope` requires a cross-version extension.
-Element `ValueSet.scope.inclusionCriteria` is mapped to FHIR R4 structure `ValueSet`, but has no target element specified.</t>
+Element `ValueSet.scope.inclusionCriteria` is will have a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:inclusionCriteria.id</t>
@@ -418,7 +418,7 @@
   </si>
   <si>
     <t>Element `ValueSet.scope.exclusionCriteria` is part of an existing definition because parent element `ValueSet.scope` requires a cross-version extension.
-Element `ValueSet.scope.exclusionCriteria` is mapped to FHIR R4 structure `ValueSet`, but has no target element specified.</t>
+Element `ValueSet.scope.exclusionCriteria` is will have a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:exclusionCriteria.id</t>
@@ -780,7 +780,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="122.09765625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="129.078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ValueSet.scope.xlsx
+++ b/StructureDefinition-ext-R5-ValueSet.scope.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ValueSet.scope` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `ValueSet.scope` is will have a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+Element `ValueSet.scope` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `ValueSet.scope.inclusionCriteria` is part of an existing definition because parent element `ValueSet.scope` requires a cross-version extension.
-Element `ValueSet.scope.inclusionCriteria` is will have a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+Element `ValueSet.scope.inclusionCriteria` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:inclusionCriteria.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.scope.inclusionCriteria</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -418,7 +421,7 @@
   </si>
   <si>
     <t>Element `ValueSet.scope.exclusionCriteria` is part of an existing definition because parent element `ValueSet.scope` requires a cross-version extension.
-Element `ValueSet.scope.exclusionCriteria` is will have a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+Element `ValueSet.scope.exclusionCriteria` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:exclusionCriteria.id</t>
@@ -428,6 +431,9 @@
   </si>
   <si>
     <t>Extension.extension:exclusionCriteria.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.scope.exclusionCriteria</t>
   </si>
   <si>
     <t>Extension.extension:exclusionCriteria.value[x]</t>
@@ -780,7 +786,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="129.078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="123.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1586,7 +1592,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1628,7 +1634,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1643,15 +1649,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1731,7 +1737,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1743,21 +1749,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1782,14 +1788,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1858,7 +1864,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1961,7 +1967,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2066,7 +2072,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2109,7 +2115,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2151,7 +2157,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2166,15 +2172,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2200,10 +2206,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2254,7 +2260,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2266,18 +2272,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2359,7 +2365,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -2374,15 +2380,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2405,13 +2411,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2462,7 +2468,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2474,10 +2480,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ValueSet.scope.xlsx
+++ b/StructureDefinition-ext-R5-ValueSet.scope.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-ValueSet.scope.xlsx
+++ b/StructureDefinition-ext-R5-ValueSet.scope.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>Criteria describing which concepts or codes should be included and why.</t>
   </si>
   <si>
-    <t>Element `ValueSet.scope.inclusionCriteria` is part of an existing definition because parent element `ValueSet.scope` requires a cross-version extension.
-Element `ValueSet.scope.inclusionCriteria` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+    <t>Element `ValueSet.scope.inclusionCriteria` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:inclusionCriteria.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.scope.inclusionCriteria</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -420,8 +416,7 @@
     <t>Criteria describing which concepts or codes should be excluded and why.</t>
   </si>
   <si>
-    <t>Element `ValueSet.scope.exclusionCriteria` is part of an existing definition because parent element `ValueSet.scope` requires a cross-version extension.
-Element `ValueSet.scope.exclusionCriteria` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
+    <t>Element `ValueSet.scope.exclusionCriteria` has a context of ValueSet based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:exclusionCriteria.id</t>
@@ -431,9 +426,6 @@
   </si>
   <si>
     <t>Extension.extension:exclusionCriteria.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ValueSet.scope.exclusionCriteria</t>
   </si>
   <si>
     <t>Extension.extension:exclusionCriteria.value[x]</t>
@@ -1592,72 +1584,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1737,7 +1729,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1749,21 +1741,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1788,14 +1780,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1864,7 +1856,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1967,7 +1959,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2072,7 +2064,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2115,7 +2107,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2157,30 +2149,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2206,10 +2198,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2260,7 +2252,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2272,18 +2264,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2365,30 +2357,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2411,13 +2403,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2468,7 +2460,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2480,10 +2472,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
